--- a/CasosDePruebaManual/casos de prueba manual.xlsx
+++ b/CasosDePruebaManual/casos de prueba manual.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t xml:space="preserve">Módulo/Pantalla/Sprint: </t>
   </si>
@@ -511,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,6 +677,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,28 +728,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:Z483"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -960,20 +966,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -988,20 +994,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="65"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1016,20 +1022,20 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="60"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1044,22 +1050,22 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="60"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1074,22 +1080,22 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="60"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1104,22 +1110,22 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="60"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1134,22 +1140,22 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="60"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1164,24 +1170,24 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="68"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="59" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="60"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="60"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1252,22 +1258,22 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="110.25" customHeight="1">
-      <c r="A10" s="70"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="51"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="17"/>
       <c r="J10" s="45"/>
       <c r="K10" s="51"/>
@@ -1288,20 +1294,20 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="125.25" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="51"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="71" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="17"/>
       <c r="J11" s="45"/>
       <c r="K11" s="51"/>
@@ -1322,20 +1328,20 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="125.25" customHeight="1">
-      <c r="A12" s="70"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="51"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="17"/>
       <c r="J12" s="45"/>
       <c r="K12" s="51"/>
@@ -1356,16 +1362,16 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="125.25" customHeight="1">
-      <c r="A13" s="70"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="51"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="72" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="17"/>
       <c r="J13" s="45"/>
       <c r="K13" s="51"/>
@@ -1386,20 +1392,20 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="1:26" ht="125.25" customHeight="1">
-      <c r="A14" s="70"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="51"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="71" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="17"/>
       <c r="J14" s="45"/>
       <c r="K14" s="51"/>
@@ -1420,20 +1426,20 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" ht="120.75" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="51"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="17"/>
       <c r="J15" s="45"/>
       <c r="K15" s="51"/>
@@ -1454,22 +1460,22 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="1:26" ht="123" customHeight="1">
-      <c r="A16" s="70"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="51"/>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="17"/>
       <c r="J16" s="45"/>
       <c r="K16" s="51"/>
@@ -1490,14 +1496,20 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26" ht="128.25" customHeight="1">
-      <c r="A17" s="70"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="51"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="17"/>
       <c r="J17" s="45"/>
       <c r="K17" s="51"/>
@@ -1518,12 +1530,18 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" ht="12.75">
-      <c r="A18" s="70"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="51"/>
       <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="D18" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1546,12 +1564,14 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26" ht="12.75">
-      <c r="A19" s="70"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="51"/>
       <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="68"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -1573,13 +1593,19 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:26" ht="25.5">
+      <c r="A20" s="59"/>
       <c r="B20" s="51"/>
       <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="D20" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1602,12 +1628,18 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26" ht="76.5" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="51"/>
       <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="D21" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -1630,7 +1662,7 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" ht="135.75" customHeight="1">
-      <c r="A22" s="70"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="51"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -1658,7 +1690,7 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" ht="135.75" customHeight="1">
-      <c r="A23" s="70"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="51"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -1686,7 +1718,7 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" ht="135.75" customHeight="1">
-      <c r="A24" s="70"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="51"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -1714,7 +1746,7 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" ht="122.25" customHeight="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="51"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -1742,7 +1774,7 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26" ht="122.25" customHeight="1">
-      <c r="A26" s="70"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="51"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -1770,7 +1802,7 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26" ht="146.25" customHeight="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="51"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -14566,12 +14598,9 @@
       <c r="Z483" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
+  <mergeCells count="17">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A1:N2"/>
@@ -14582,6 +14611,11 @@
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
